--- a/biology/Botanique/Panification_sur_levure/Panification_sur_levure.xlsx
+++ b/biology/Botanique/Panification_sur_levure/Panification_sur_levure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La panification sur levure consiste à fabriquer du pain avec de la farine, de l'eau, de la levure de boulanger et du sel.
-À la fin du XVIIe, les boulangers français commencent à ajouter de la levure de bière au levain pour améliorer le goût, accélérer la levée du pain et en améliorer la conservation[1],[2]. Le pain à la levure seule (sous forme de poolish) a été introduit en France vers 1840 depuis la Pologne par un boulanger autrichien[1],[3].
-L'objectif du boulanger est de contrôler la production de gaz carbonique par des cellules de levure vivantes, pour qu'elles produisent juste la bonne quantité de gaz capable de remplir les alvéoles du réseau glutineux, formé au cours du pétrissage par les protéines de la farine au contact de l'eau. C'est la maitrise de ce processus qui assure une levée correcte de la pâte, fournissant au pain une structure largement alvéolée, une mie légère et une croûte savoureuse. Le boulanger est le chef d'orchestre de milliards d'êtres vivants en pleine activité, toujours prêts à s'emballer ou à s'endormir. Il doit les conduire au bon rythme pour que le développement gazeux soit à son optimum sans jamais le dépasser, sinon il verrait la pâte retomber[4], ni sans trop le laisser ralentir, sinon la pâte manquerait de développement et la croûte serait trop épaisse.
-Partons d'un exemple concret de fabrication de 20 baguettes sur levure dans une petite boulangerie artisanale de Charente. La panification s'effectue en 11 étapes[5],[6] :
+À la fin du XVIIe, les boulangers français commencent à ajouter de la levure de bière au levain pour améliorer le goût, accélérer la levée du pain et en améliorer la conservation,. Le pain à la levure seule (sous forme de poolish) a été introduit en France vers 1840 depuis la Pologne par un boulanger autrichien,.
+L'objectif du boulanger est de contrôler la production de gaz carbonique par des cellules de levure vivantes, pour qu'elles produisent juste la bonne quantité de gaz capable de remplir les alvéoles du réseau glutineux, formé au cours du pétrissage par les protéines de la farine au contact de l'eau. C'est la maitrise de ce processus qui assure une levée correcte de la pâte, fournissant au pain une structure largement alvéolée, une mie légère et une croûte savoureuse. Le boulanger est le chef d'orchestre de milliards d'êtres vivants en pleine activité, toujours prêts à s'emballer ou à s'endormir. Il doit les conduire au bon rythme pour que le développement gazeux soit à son optimum sans jamais le dépasser, sinon il verrait la pâte retomber, ni sans trop le laisser ralentir, sinon la pâte manquerait de développement et la croûte serait trop épaisse.
+Partons d'un exemple concret de fabrication de 20 baguettes sur levure dans une petite boulangerie artisanale de Charente. La panification s'effectue en 11 étapes, :
 </t>
         </is>
       </c>
